--- a/TestData/ArtVault_testdataexcel.xlsx
+++ b/TestData/ArtVault_testdataexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ake\OneDrive - HP Inc\Documents\Infogain Automation POC\test-poc\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A40B2-2FB6-4DE7-8F7A-DFBEFE8CD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68479BA8-2FDC-4807-B8EB-C84E55990487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{EA9A73BD-E7B1-46DC-B361-2A9D1EB98CE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA9A73BD-E7B1-46DC-B361-2A9D1EB98CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="PhoneNumberFieldValidation" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEDD909-8BBE-426B-A412-1432304D760B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1638,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E61EDE1-4219-47AE-906A-FAE4C6062390}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
